--- a/agua subterranea/Ficha de agua subterranea.xlsx
+++ b/agua subterranea/Ficha de agua subterranea.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1164" documentId="11_BB1F5E3ED609797AEADF993B60A0A72DF4D946F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAEFC09-9C32-42E7-BFD6-F0B117D41E85}"/>
+  <xr:revisionPtr revIDLastSave="1165" documentId="11_BB1F5E3ED609797AEADF993B60A0A72DF4D946F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A46B52-A1A0-4003-8027-DB4066B422A1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>Ponto de amostragem</t>
   </si>
   <si>
-    <t>Identificacao da Amostra</t>
+    <t>Identificacao da amostra</t>
   </si>
   <si>
     <t>Profundidade do Poco (m)</t>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="F10">
         <f ca="1">ROUND(RAND()*(6.5-4)+4, 2)</f>
-        <v>4.4800000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="G10">
         <f ca="1">ROUND(RAND()*(7-2)+4, 2)</f>
-        <v>6.1</v>
+        <v>6.03</v>
       </c>
       <c r="H10" s="4">
         <v>45022</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="V10">
         <f ca="1">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>388.7</v>
+        <v>396.35</v>
       </c>
       <c r="W10" t="s">
         <v>82</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AD10">
         <f ca="1">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>217.62</v>
+        <v>538.44000000000005</v>
       </c>
       <c r="AE10" t="s">
         <v>82</v>
@@ -3465,11 +3465,11 @@
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F74" ca="1" si="0">ROUND(RAND()*(6.5-4)+4, 2)</f>
-        <v>5.67</v>
+        <v>5.4</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G74" ca="1" si="1">ROUND(RAND()*(7-2)+4, 2)</f>
-        <v>4.1900000000000004</v>
+        <v>7.46</v>
       </c>
       <c r="H11" s="5">
         <v>45022</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="O11">
         <f t="shared" ref="O11:O74" ca="1" si="2">RANDBETWEEN(25,33)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
         <v>78</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="V11">
         <f t="shared" ref="V11:V74" ca="1" si="3">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>620.66999999999996</v>
+        <v>581.54999999999995</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>105</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="AD11">
         <f t="shared" ref="AD11:AD74" ca="1" si="4">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>640.86</v>
+        <v>623.91</v>
       </c>
       <c r="AE11" t="s">
         <v>82</v>
@@ -3568,11 +3568,11 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>5.73</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.54</v>
+        <v>7.57</v>
       </c>
       <c r="H12" s="4">
         <v>45022</v>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="3"/>
-        <v>472.29</v>
+        <v>778.33</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>105</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="4"/>
-        <v>318.08</v>
+        <v>173.96</v>
       </c>
       <c r="AE12" t="s">
         <v>82</v>
@@ -3671,11 +3671,11 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.32</v>
+        <v>4.76</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.97</v>
+        <v>4.38</v>
       </c>
       <c r="H13" s="5">
         <v>45022</v>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
         <v>78</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="3"/>
-        <v>213.78</v>
+        <v>546.12</v>
       </c>
       <c r="W13" t="s">
         <v>82</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="4"/>
-        <v>208.96</v>
+        <v>257.95</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>105</v>
@@ -3774,11 +3774,11 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5599999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>8.83</v>
+        <v>8.39</v>
       </c>
       <c r="H14" s="5">
         <v>45022</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R14" t="s">
         <v>78</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="3"/>
-        <v>652.79999999999995</v>
+        <v>404.58</v>
       </c>
       <c r="W14" t="s">
         <v>82</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="4"/>
-        <v>305.12</v>
+        <v>149.76</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>105</v>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.83</v>
+        <v>4.49</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.95</v>
+        <v>5.62</v>
       </c>
       <c r="H15" s="5">
         <v>45022</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
         <v>78</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="3"/>
-        <v>720.16</v>
+        <v>465.66</v>
       </c>
       <c r="W15" t="s">
         <v>82</v>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="4"/>
-        <v>283.83999999999997</v>
+        <v>766.82</v>
       </c>
       <c r="AE15" t="s">
         <v>82</v>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.08</v>
+        <v>4.43</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.34</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H16" s="5">
         <v>45022</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R16" t="s">
         <v>78</v>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="3"/>
-        <v>57.86</v>
+        <v>482.03</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>105</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="4"/>
-        <v>730.56</v>
+        <v>692.38</v>
       </c>
       <c r="AE16" t="s">
         <v>82</v>
@@ -4083,11 +4083,11 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>5.79</v>
+        <v>5.91</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.49</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H17" s="5">
         <v>45022</v>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s">
         <v>78</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="3"/>
-        <v>113.71</v>
+        <v>178.27</v>
       </c>
       <c r="W17" t="s">
         <v>82</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="4"/>
-        <v>589.01</v>
+        <v>15.15</v>
       </c>
       <c r="AE17" t="s">
         <v>82</v>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>4.04</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.75</v>
+        <v>8.75</v>
       </c>
       <c r="H18" s="5">
         <v>45022</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R18" t="s">
         <v>78</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="3"/>
-        <v>786.76</v>
+        <v>414.19</v>
       </c>
       <c r="W18" t="s">
         <v>82</v>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="AD18">
         <f t="shared" ca="1" si="4"/>
-        <v>211.43</v>
+        <v>674.08</v>
       </c>
       <c r="AE18" t="s">
         <v>82</v>
@@ -4289,11 +4289,11 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.68</v>
+        <v>4.09</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.26</v>
+        <v>6.35</v>
       </c>
       <c r="H19" s="5">
         <v>45022</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R19" t="s">
         <v>78</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="3"/>
-        <v>251.61</v>
+        <v>751.88</v>
       </c>
       <c r="W19" t="s">
         <v>82</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="AD19">
         <f t="shared" ca="1" si="4"/>
-        <v>602.12</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AE19" t="s">
         <v>82</v>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>4.28</v>
+        <v>4.8</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4499999999999993</v>
+        <v>5.08</v>
       </c>
       <c r="H20" s="5">
         <v>45022</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
         <v>78</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="3"/>
-        <v>657.53</v>
+        <v>502.09</v>
       </c>
       <c r="W20" t="s">
         <v>82</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="AD20">
         <f t="shared" ca="1" si="4"/>
-        <v>60.07</v>
+        <v>724.79</v>
       </c>
       <c r="AE20" t="s">
         <v>82</v>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.94</v>
+        <v>6.44</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.85</v>
+        <v>6.72</v>
       </c>
       <c r="H21" s="5">
         <v>45023</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R21" t="s">
         <v>78</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="3"/>
-        <v>125.78</v>
+        <v>151.85</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>105</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="AD21">
         <f t="shared" ca="1" si="4"/>
-        <v>551.48</v>
+        <v>772.95</v>
       </c>
       <c r="AE21" t="s">
         <v>82</v>
@@ -4598,11 +4598,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>5.95</v>
+        <v>5.67</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5399999999999991</v>
+        <v>7.44</v>
       </c>
       <c r="H22" s="5">
         <v>45023</v>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
         <v>78</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="3"/>
-        <v>73.2</v>
+        <v>415.33</v>
       </c>
       <c r="W22" t="s">
         <v>82</v>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="AD22">
         <f t="shared" ca="1" si="4"/>
-        <v>266.74</v>
+        <v>588</v>
       </c>
       <c r="AE22" t="s">
         <v>82</v>
@@ -4701,11 +4701,11 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.47</v>
+        <v>4.49</v>
       </c>
       <c r="H23" s="5">
         <v>45023</v>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R23" t="s">
         <v>78</v>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="3"/>
-        <v>477.2</v>
+        <v>705.7</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>105</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="AD23">
         <f t="shared" ca="1" si="4"/>
-        <v>574.77</v>
+        <v>585.51</v>
       </c>
       <c r="AE23" t="s">
         <v>82</v>
@@ -4804,11 +4804,11 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>6.09</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.51</v>
+        <v>8.06</v>
       </c>
       <c r="H24" s="5">
         <v>45023</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R24" t="s">
         <v>78</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="3"/>
-        <v>386.16</v>
+        <v>677.98</v>
       </c>
       <c r="W24" t="s">
         <v>82</v>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="4"/>
-        <v>283.73</v>
+        <v>419.1</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>105</v>
@@ -4907,11 +4907,11 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>6.01</v>
+        <v>4.75</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H25" s="5">
         <v>45023</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="3"/>
-        <v>357.74</v>
+        <v>491.38</v>
       </c>
       <c r="W25" t="s">
         <v>82</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="4"/>
-        <v>496.28</v>
+        <v>157.03</v>
       </c>
       <c r="AE25" t="s">
         <v>82</v>
@@ -5010,11 +5010,11 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.08</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.09</v>
+        <v>5.16</v>
       </c>
       <c r="H26" s="5">
         <v>45023</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="3"/>
-        <v>250.51</v>
+        <v>744.3</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>105</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="4"/>
-        <v>47.85</v>
+        <v>64.47</v>
       </c>
       <c r="AE26" t="s">
         <v>82</v>
@@ -5113,11 +5113,11 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>5.88</v>
+        <v>5.12</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>5.38</v>
+        <v>7.61</v>
       </c>
       <c r="H27" s="5">
         <v>45023</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R27" t="s">
         <v>78</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="3"/>
-        <v>269.89</v>
+        <v>36.78</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>105</v>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="4"/>
-        <v>301.69</v>
+        <v>630.95000000000005</v>
       </c>
       <c r="AE27" t="s">
         <v>82</v>
@@ -5216,11 +5216,11 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>5.41</v>
+        <v>6.36</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>6.26</v>
+        <v>6.15</v>
       </c>
       <c r="H28" s="5">
         <v>45023</v>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
         <v>78</v>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="3"/>
-        <v>219.35</v>
+        <v>481.58</v>
       </c>
       <c r="W28" t="s">
         <v>82</v>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="4"/>
-        <v>102.23</v>
+        <v>170.72</v>
       </c>
       <c r="AE28" t="s">
         <v>82</v>
@@ -5319,11 +5319,11 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>5.31</v>
+        <v>5.75</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.45</v>
+        <v>8.26</v>
       </c>
       <c r="H29" s="5">
         <v>45023</v>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R29" t="s">
         <v>78</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="3"/>
-        <v>235.17</v>
+        <v>176.75</v>
       </c>
       <c r="W29" t="s">
         <v>82</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AD29">
         <f t="shared" ca="1" si="4"/>
-        <v>614.51</v>
+        <v>735.35</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>105</v>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>5.47</v>
+        <v>6.23</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>5.21</v>
+        <v>4.54</v>
       </c>
       <c r="H30" s="5">
         <v>45023</v>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="3"/>
-        <v>371.3</v>
+        <v>296.52999999999997</v>
       </c>
       <c r="W30" t="s">
         <v>82</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="AD30">
         <f t="shared" ca="1" si="4"/>
-        <v>155.22</v>
+        <v>789.57</v>
       </c>
       <c r="AE30" t="s">
         <v>82</v>
@@ -5525,11 +5525,11 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>5.75</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>6.74</v>
+        <v>5.64</v>
       </c>
       <c r="H31" s="5">
         <v>45023</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R31" t="s">
         <v>78</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="3"/>
-        <v>251.88</v>
+        <v>641.69000000000005</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>105</v>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="4"/>
-        <v>654.96</v>
+        <v>623.34</v>
       </c>
       <c r="AE31" t="s">
         <v>82</v>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>6.14</v>
+        <v>5.26</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="H32" s="5">
         <v>45023</v>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R32" t="s">
         <v>78</v>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="3"/>
-        <v>337.31</v>
+        <v>665.46</v>
       </c>
       <c r="W32" t="s">
         <v>82</v>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="4"/>
-        <v>63.25</v>
+        <v>484.13</v>
       </c>
       <c r="AE32" t="s">
         <v>82</v>
@@ -5731,11 +5731,11 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>6.09</v>
+        <v>5.72</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H33" s="5">
         <v>45024</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R33" t="s">
         <v>78</v>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="3"/>
-        <v>551.89</v>
+        <v>575.08000000000004</v>
       </c>
       <c r="W33" t="s">
         <v>82</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="4"/>
-        <v>275.10000000000002</v>
+        <v>134.26</v>
       </c>
       <c r="AE33" t="s">
         <v>82</v>
@@ -5834,11 +5834,11 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>5.27</v>
+        <v>4.2</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>8.66</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H34" s="5">
         <v>45024</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R34" t="s">
         <v>78</v>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="3"/>
-        <v>564.04</v>
+        <v>492.95</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>105</v>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="AD34">
         <f t="shared" ca="1" si="4"/>
-        <v>726.13</v>
+        <v>58.84</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>105</v>
@@ -5937,11 +5937,11 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>6.28</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3499999999999996</v>
+        <v>6.37</v>
       </c>
       <c r="H35" s="5">
         <v>45024</v>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R35" t="s">
         <v>78</v>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="3"/>
-        <v>261.12</v>
+        <v>260.95999999999998</v>
       </c>
       <c r="W35" t="s">
         <v>82</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="4"/>
-        <v>735.78</v>
+        <v>47.44</v>
       </c>
       <c r="AE35" t="s">
         <v>82</v>
@@ -6040,11 +6040,11 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>5.23</v>
+        <v>5.35</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>6.82</v>
       </c>
       <c r="H36" s="5">
         <v>45024</v>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R36" t="s">
         <v>78</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="3"/>
-        <v>48.13</v>
+        <v>718.65</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>105</v>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="4"/>
-        <v>650.13</v>
+        <v>421.8</v>
       </c>
       <c r="AE36" t="s">
         <v>82</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>4.99</v>
+        <v>4.05</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.67</v>
+        <v>8.75</v>
       </c>
       <c r="H37" s="5">
         <v>45024</v>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R37" t="s">
         <v>78</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="3"/>
-        <v>619.96</v>
+        <v>183.42</v>
       </c>
       <c r="W37" t="s">
         <v>82</v>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="4"/>
-        <v>66.95</v>
+        <v>410.67</v>
       </c>
       <c r="AE37" t="s">
         <v>82</v>
@@ -6246,11 +6246,11 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>5.64</v>
+        <v>5.07</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0199999999999996</v>
+        <v>7.17</v>
       </c>
       <c r="H38" s="5">
         <v>45024</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" t="s">
         <v>78</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="3"/>
-        <v>202.98</v>
+        <v>771.46</v>
       </c>
       <c r="W38" t="s">
         <v>82</v>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="4"/>
-        <v>251.77</v>
+        <v>456.03</v>
       </c>
       <c r="AE38" t="s">
         <v>82</v>
@@ -6349,11 +6349,11 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>5.79</v>
+        <v>4.68</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>6.48</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H39" s="5">
         <v>45025</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="3"/>
-        <v>233.72</v>
+        <v>441.22</v>
       </c>
       <c r="W39" t="s">
         <v>82</v>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="4"/>
-        <v>266.14999999999998</v>
+        <v>169.81</v>
       </c>
       <c r="AE39" t="s">
         <v>82</v>
@@ -6452,11 +6452,11 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4800000000000004</v>
+        <v>4.58</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>5.18</v>
+        <v>6.83</v>
       </c>
       <c r="H40" s="5">
         <v>45025</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R40" t="s">
         <v>78</v>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="3"/>
-        <v>296.52</v>
+        <v>36.39</v>
       </c>
       <c r="W40" t="s">
         <v>82</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="4"/>
-        <v>613</v>
+        <v>293.45999999999998</v>
       </c>
       <c r="AE40" t="s">
         <v>82</v>
@@ -6555,11 +6555,11 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>5.92</v>
+        <v>4.13</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>6.94</v>
+        <v>5.74</v>
       </c>
       <c r="H41" s="5">
         <v>45025</v>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
         <v>78</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="3"/>
-        <v>153.5</v>
+        <v>203.65</v>
       </c>
       <c r="W41" t="s">
         <v>82</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="4"/>
-        <v>773.6</v>
+        <v>467.91</v>
       </c>
       <c r="AE41" t="s">
         <v>82</v>
@@ -6658,11 +6658,11 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>5.36</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>4.96</v>
+        <v>8.17</v>
       </c>
       <c r="H42" s="5">
         <v>45025</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R42" t="s">
         <v>78</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="3"/>
-        <v>465.6</v>
+        <v>213.62</v>
       </c>
       <c r="W42" t="s">
         <v>82</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="4"/>
-        <v>474.93</v>
+        <v>74.91</v>
       </c>
       <c r="AE42" t="s">
         <v>82</v>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>4.59</v>
+        <v>6.49</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>4.99</v>
+        <v>4.53</v>
       </c>
       <c r="H43" s="5">
         <v>45025</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R43" t="s">
         <v>78</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="3"/>
-        <v>357.93</v>
+        <v>354.67</v>
       </c>
       <c r="W43" t="s">
         <v>82</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="4"/>
-        <v>574.30999999999995</v>
+        <v>97.78</v>
       </c>
       <c r="AE43" t="s">
         <v>82</v>
@@ -6864,11 +6864,11 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
+        <v>5.65</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>6.02</v>
+        <v>7.38</v>
       </c>
       <c r="H44" s="5">
         <v>45025</v>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R44" t="s">
         <v>78</v>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="3"/>
-        <v>386.32</v>
+        <v>169.34</v>
       </c>
       <c r="W44" t="s">
         <v>82</v>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="AD44">
         <f t="shared" ca="1" si="4"/>
-        <v>284.8</v>
+        <v>98.16</v>
       </c>
       <c r="AE44" t="s">
         <v>82</v>
@@ -6967,11 +6967,11 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>5.75</v>
+        <v>6.06</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.93</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="H45" s="5">
         <v>45025</v>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R45" t="s">
         <v>78</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="3"/>
-        <v>185.69</v>
+        <v>706.57</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>105</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="AD45">
         <f t="shared" ca="1" si="4"/>
-        <v>43.48</v>
+        <v>774.93</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>105</v>
@@ -7070,11 +7070,11 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>6.33</v>
+        <v>5.82</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>8.85</v>
       </c>
       <c r="H46" s="4">
         <v>45026</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R46" t="s">
         <v>78</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="3"/>
-        <v>30.77</v>
+        <v>214.88</v>
       </c>
       <c r="W46" t="s">
         <v>82</v>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="4"/>
-        <v>755.81</v>
+        <v>383.15</v>
       </c>
       <c r="AE46" t="s">
         <v>82</v>
@@ -7173,11 +7173,11 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>6.76</v>
+        <v>5.99</v>
       </c>
       <c r="H47" s="5">
         <v>45026</v>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
         <v>78</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="3"/>
-        <v>99.74</v>
+        <v>148.09</v>
       </c>
       <c r="W47" t="s">
         <v>82</v>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="4"/>
-        <v>611.49</v>
+        <v>657.39</v>
       </c>
       <c r="AE47" s="2" t="s">
         <v>105</v>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>6.38</v>
+        <v>4.07</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
+        <v>8.19</v>
       </c>
       <c r="H48" s="5">
         <v>45026</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="3"/>
-        <v>407.73</v>
+        <v>783.21</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>105</v>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="4"/>
-        <v>290.41000000000003</v>
+        <v>505.38</v>
       </c>
       <c r="AE48" t="s">
         <v>82</v>
@@ -7379,11 +7379,11 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>5.29</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>6.62</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="H49" s="5">
         <v>45026</v>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="3"/>
-        <v>127.33</v>
+        <v>639.86</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>105</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="AD49">
         <f t="shared" ca="1" si="4"/>
-        <v>678.47</v>
+        <v>629.66</v>
       </c>
       <c r="AE49" t="s">
         <v>82</v>
@@ -7482,11 +7482,11 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>5.52</v>
+        <v>6.36</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>6.74</v>
+        <v>8.61</v>
       </c>
       <c r="H50" s="5">
         <v>45026</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R50" t="s">
         <v>78</v>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="3"/>
-        <v>225.72</v>
+        <v>408.27</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>105</v>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="AD50">
         <f t="shared" ca="1" si="4"/>
-        <v>478.39</v>
+        <v>324.81</v>
       </c>
       <c r="AE50" t="s">
         <v>82</v>
@@ -7585,11 +7585,11 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>4.38</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>8.85</v>
+        <v>8.15</v>
       </c>
       <c r="H51" s="5">
         <v>45026</v>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R51" t="s">
         <v>78</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="3"/>
-        <v>341.36</v>
+        <v>337.84</v>
       </c>
       <c r="W51" t="s">
         <v>82</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AD51">
         <f t="shared" ca="1" si="4"/>
-        <v>585.22</v>
+        <v>394.77</v>
       </c>
       <c r="AE51" t="s">
         <v>82</v>
@@ -7688,11 +7688,11 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>5.58</v>
+        <v>4.17</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>6.99</v>
+        <v>7.62</v>
       </c>
       <c r="H52" s="5">
         <v>45026</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R52" t="s">
         <v>78</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="3"/>
-        <v>796.91</v>
+        <v>268.05</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>105</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="AD52">
         <f t="shared" ca="1" si="4"/>
-        <v>117.26</v>
+        <v>437.48</v>
       </c>
       <c r="AE52" s="2" t="s">
         <v>105</v>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
+        <v>6.15</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7300000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H53" s="5">
         <v>45026</v>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R53" t="s">
         <v>78</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="3"/>
-        <v>575.52</v>
+        <v>72.11</v>
       </c>
       <c r="W53" s="2" t="s">
         <v>105</v>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="AD53">
         <f t="shared" ca="1" si="4"/>
-        <v>566.86</v>
+        <v>311.62</v>
       </c>
       <c r="AE53" t="s">
         <v>82</v>
@@ -7894,11 +7894,11 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>5.94</v>
+        <v>4.7</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>4.01</v>
+        <v>6.46</v>
       </c>
       <c r="H54" s="5">
         <v>45026</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R54" t="s">
         <v>78</v>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="3"/>
-        <v>500.06</v>
+        <v>620.01</v>
       </c>
       <c r="W54" t="s">
         <v>82</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="AD54">
         <f t="shared" ca="1" si="4"/>
-        <v>620.44000000000005</v>
+        <v>151.99</v>
       </c>
       <c r="AE54" s="2" t="s">
         <v>105</v>
@@ -7997,11 +7997,11 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2699999999999996</v>
+        <v>6.36</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>5.16</v>
+        <v>6.15</v>
       </c>
       <c r="H55" s="5">
         <v>45026</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R55" t="s">
         <v>78</v>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="3"/>
-        <v>189.77</v>
+        <v>500.81</v>
       </c>
       <c r="W55" t="s">
         <v>82</v>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="AD55">
         <f t="shared" ca="1" si="4"/>
-        <v>441.89</v>
+        <v>650.70000000000005</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>105</v>
@@ -8100,11 +8100,11 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>4.53</v>
+        <v>4.01</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>6.74</v>
+        <v>7.33</v>
       </c>
       <c r="H56" s="5">
         <v>45026</v>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R56" t="s">
         <v>78</v>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="3"/>
-        <v>670.91</v>
+        <v>250.67</v>
       </c>
       <c r="W56" t="s">
         <v>82</v>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="AD56">
         <f t="shared" ca="1" si="4"/>
-        <v>175.91</v>
+        <v>556.64</v>
       </c>
       <c r="AE56" t="s">
         <v>82</v>
@@ -8203,11 +8203,11 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8899999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>6.89</v>
       </c>
       <c r="H57" s="5">
         <v>45026</v>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R57" t="s">
         <v>78</v>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="3"/>
-        <v>313.10000000000002</v>
+        <v>625.01</v>
       </c>
       <c r="W57" t="s">
         <v>82</v>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="AD57">
         <f t="shared" ca="1" si="4"/>
-        <v>133.66</v>
+        <v>259.31</v>
       </c>
       <c r="AE57" t="s">
         <v>82</v>
@@ -8306,11 +8306,11 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>5.01</v>
+        <v>5.75</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>5.24</v>
+        <v>7.06</v>
       </c>
       <c r="H58" s="4">
         <v>45027</v>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R58" t="s">
         <v>78</v>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="3"/>
-        <v>191.88</v>
+        <v>721.24</v>
       </c>
       <c r="W58" t="s">
         <v>82</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="AD58">
         <f t="shared" ca="1" si="4"/>
-        <v>78.069999999999993</v>
+        <v>589.83000000000004</v>
       </c>
       <c r="AE58" t="s">
         <v>82</v>
@@ -8409,11 +8409,11 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="0"/>
-        <v>4.47</v>
+        <v>5.63</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>6.53</v>
+        <v>8.92</v>
       </c>
       <c r="H59" s="5">
         <v>45027</v>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R59" t="s">
         <v>78</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="3"/>
-        <v>411.06</v>
+        <v>464.65</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>105</v>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="AD59">
         <f t="shared" ca="1" si="4"/>
-        <v>589.08000000000004</v>
+        <v>674.73</v>
       </c>
       <c r="AE59" t="s">
         <v>82</v>
@@ -8512,11 +8512,11 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7300000000000004</v>
+        <v>5.26</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>5.14</v>
+        <v>8.1</v>
       </c>
       <c r="H60" s="5">
         <v>45027</v>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R60" t="s">
         <v>78</v>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="3"/>
-        <v>221.85</v>
+        <v>395.28</v>
       </c>
       <c r="W60" t="s">
         <v>82</v>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="AD60">
         <f t="shared" ca="1" si="4"/>
-        <v>503.23</v>
+        <v>604.36</v>
       </c>
       <c r="AE60" t="s">
         <v>82</v>
@@ -8615,11 +8615,11 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="0"/>
-        <v>4.12</v>
+        <v>5.12</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>7.56</v>
+        <v>8.86</v>
       </c>
       <c r="H61" s="5">
         <v>45027</v>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R61" t="s">
         <v>78</v>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="3"/>
-        <v>144.71</v>
+        <v>609.33000000000004</v>
       </c>
       <c r="W61" t="s">
         <v>82</v>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AD61">
         <f t="shared" ca="1" si="4"/>
-        <v>75.989999999999995</v>
+        <v>203.99</v>
       </c>
       <c r="AE61" t="s">
         <v>82</v>
@@ -8718,11 +8718,11 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="0"/>
-        <v>6.27</v>
+        <v>5.75</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>6.64</v>
+        <v>4.93</v>
       </c>
       <c r="H62" s="4">
         <v>45028</v>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R62" t="s">
         <v>78</v>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="3"/>
-        <v>796.74</v>
+        <v>601.57000000000005</v>
       </c>
       <c r="W62" t="s">
         <v>82</v>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="AD62">
         <f t="shared" ca="1" si="4"/>
-        <v>204.49</v>
+        <v>794.37</v>
       </c>
       <c r="AE62" t="s">
         <v>82</v>
@@ -8821,11 +8821,11 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
+        <v>5.52</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>7.23</v>
       </c>
       <c r="H63" s="5">
         <v>45028</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R63" t="s">
         <v>78</v>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="3"/>
-        <v>27.19</v>
+        <v>342.04</v>
       </c>
       <c r="W63" t="s">
         <v>82</v>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="AD63">
         <f t="shared" ca="1" si="4"/>
-        <v>112.69</v>
+        <v>609.4</v>
       </c>
       <c r="AE63" t="s">
         <v>82</v>
@@ -8924,11 +8924,11 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="0"/>
-        <v>6.29</v>
+        <v>5.79</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3699999999999992</v>
+        <v>5.94</v>
       </c>
       <c r="H64" s="5">
         <v>45028</v>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R64" t="s">
         <v>78</v>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="3"/>
-        <v>695.53</v>
+        <v>423.95</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>105</v>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="AD64">
         <f t="shared" ca="1" si="4"/>
-        <v>20.88</v>
+        <v>674.02</v>
       </c>
       <c r="AE64" t="s">
         <v>82</v>
@@ -9027,11 +9027,11 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4400000000000004</v>
+        <v>5.43</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>5.89</v>
+        <v>7.41</v>
       </c>
       <c r="H65" s="5">
         <v>45028</v>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R65" t="s">
         <v>78</v>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="3"/>
-        <v>466.19</v>
+        <v>497.75</v>
       </c>
       <c r="W65" t="s">
         <v>82</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AD65">
         <f t="shared" ca="1" si="4"/>
-        <v>773.6</v>
+        <v>310.92</v>
       </c>
       <c r="AE65" t="s">
         <v>82</v>
@@ -9130,11 +9130,11 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="0"/>
-        <v>4.99</v>
+        <v>4.87</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>4.29</v>
       </c>
       <c r="H66" s="5">
         <v>45028</v>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66" t="s">
         <v>78</v>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="3"/>
-        <v>347.39</v>
+        <v>782.09</v>
       </c>
       <c r="W66" t="s">
         <v>82</v>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="AD66">
         <f t="shared" ca="1" si="4"/>
-        <v>243.42</v>
+        <v>605.89</v>
       </c>
       <c r="AE66" t="s">
         <v>82</v>
@@ -9233,11 +9233,11 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="0"/>
-        <v>5.66</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="1"/>
-        <v>7.84</v>
+        <v>7.46</v>
       </c>
       <c r="H67" s="5">
         <v>45028</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R67" t="s">
         <v>78</v>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="V67">
         <f t="shared" ca="1" si="3"/>
-        <v>367.2</v>
+        <v>752.96</v>
       </c>
       <c r="W67" t="s">
         <v>82</v>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="AD67">
         <f t="shared" ca="1" si="4"/>
-        <v>303.61</v>
+        <v>710.19</v>
       </c>
       <c r="AE67" t="s">
         <v>82</v>
@@ -9336,11 +9336,11 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="0"/>
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4400000000000004</v>
+        <v>4.74</v>
       </c>
       <c r="H68" s="5">
         <v>45029</v>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="V68">
         <f t="shared" ca="1" si="3"/>
-        <v>490.71</v>
+        <v>429.11</v>
       </c>
       <c r="W68" t="s">
         <v>82</v>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="AD68">
         <f t="shared" ca="1" si="4"/>
-        <v>221.61</v>
+        <v>356.57</v>
       </c>
       <c r="AE68" t="s">
         <v>82</v>
@@ -9439,11 +9439,11 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="0"/>
-        <v>4.87</v>
+        <v>4.75</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="1"/>
-        <v>8.83</v>
+        <v>7.08</v>
       </c>
       <c r="H69" s="5">
         <v>45029</v>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R69" t="s">
         <v>78</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="3"/>
-        <v>627.87</v>
+        <v>710.64</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>105</v>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="AD69">
         <f t="shared" ca="1" si="4"/>
-        <v>536.36</v>
+        <v>7.41</v>
       </c>
       <c r="AE69" t="s">
         <v>82</v>
@@ -9542,11 +9542,11 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="0"/>
-        <v>4.96</v>
+        <v>4.63</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>6.46</v>
       </c>
       <c r="H70" s="5">
         <v>45029</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R70" t="s">
         <v>78</v>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="3"/>
-        <v>653.29999999999995</v>
+        <v>81.34</v>
       </c>
       <c r="W70" t="s">
         <v>82</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="AD70">
         <f t="shared" ca="1" si="4"/>
-        <v>403.42</v>
+        <v>151.83000000000001</v>
       </c>
       <c r="AE70" t="s">
         <v>82</v>
@@ -9645,11 +9645,11 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="0"/>
-        <v>6.09</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="1"/>
-        <v>4.04</v>
+        <v>7.6</v>
       </c>
       <c r="H71" s="5">
         <v>45029</v>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R71" t="s">
         <v>78</v>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="V71">
         <f t="shared" ca="1" si="3"/>
-        <v>695.02</v>
+        <v>331.28</v>
       </c>
       <c r="W71" t="s">
         <v>82</v>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AD71">
         <f t="shared" ca="1" si="4"/>
-        <v>686.38</v>
+        <v>688.75</v>
       </c>
       <c r="AE71" t="s">
         <v>82</v>
@@ -9748,11 +9748,11 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2300000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>6.81</v>
       </c>
       <c r="H72" s="5">
         <v>45029</v>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R72" t="s">
         <v>78</v>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="3"/>
-        <v>105.7</v>
+        <v>220.24</v>
       </c>
       <c r="W72" t="s">
         <v>82</v>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="AD72">
         <f t="shared" ca="1" si="4"/>
-        <v>689.09</v>
+        <v>265.32</v>
       </c>
       <c r="AE72" t="s">
         <v>82</v>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="0"/>
-        <v>6.34</v>
+        <v>5.95</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="1"/>
-        <v>7.75</v>
+        <v>6.05</v>
       </c>
       <c r="H73" s="5">
         <v>45029</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R73" t="s">
         <v>78</v>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="3"/>
-        <v>488.73</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="W73" t="s">
         <v>82</v>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="AD73">
         <f t="shared" ca="1" si="4"/>
-        <v>410.94</v>
+        <v>59.54</v>
       </c>
       <c r="AE73" t="s">
         <v>82</v>
@@ -9954,11 +9954,11 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="0"/>
-        <v>6.38</v>
+        <v>5.28</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>6.32</v>
       </c>
       <c r="H74" s="5">
         <v>45029</v>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R74" t="s">
         <v>78</v>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="V74">
         <f t="shared" ca="1" si="3"/>
-        <v>719.91</v>
+        <v>333.33</v>
       </c>
       <c r="W74" t="s">
         <v>82</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="AD74">
         <f t="shared" ca="1" si="4"/>
-        <v>489.4</v>
+        <v>517.6</v>
       </c>
       <c r="AE74" s="2" t="s">
         <v>105</v>
@@ -10057,11 +10057,11 @@
       </c>
       <c r="F75">
         <f t="shared" ref="F75:F100" ca="1" si="5">ROUND(RAND()*(6.5-4)+4, 2)</f>
-        <v>4.8499999999999996</v>
+        <v>5.37</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75:G100" ca="1" si="6">ROUND(RAND()*(7-2)+4, 2)</f>
-        <v>8.5500000000000007</v>
+        <v>7.65</v>
       </c>
       <c r="H75" s="5">
         <v>45029</v>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="O75">
         <f t="shared" ref="O75:O100" ca="1" si="7">RANDBETWEEN(25,33)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R75" t="s">
         <v>78</v>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="V75">
         <f t="shared" ref="V75:V100" ca="1" si="8">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>671.32</v>
+        <v>119.98</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>105</v>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="AD75">
         <f t="shared" ref="AD75:AD100" ca="1" si="9">ROUND(RAND()*(850-57)+4, 2)</f>
-        <v>747.66</v>
+        <v>464.67</v>
       </c>
       <c r="AE75" t="s">
         <v>82</v>
@@ -10160,11 +10160,11 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>4.08</v>
+        <v>5.31</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>5.15</v>
+        <v>6.35</v>
       </c>
       <c r="H76" s="5">
         <v>45029</v>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R76" t="s">
         <v>78</v>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="V76">
         <f t="shared" ca="1" si="8"/>
-        <v>240.91</v>
+        <v>591.21</v>
       </c>
       <c r="W76" s="2" t="s">
         <v>105</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="AD76">
         <f t="shared" ca="1" si="9"/>
-        <v>56.05</v>
+        <v>356.45</v>
       </c>
       <c r="AE76" t="s">
         <v>82</v>
@@ -10263,11 +10263,11 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3</v>
+        <v>5.34</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>6.22</v>
+        <v>4.32</v>
       </c>
       <c r="H77" s="5">
         <v>45029</v>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R77" t="s">
         <v>78</v>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="8"/>
-        <v>145.72</v>
+        <v>705.71</v>
       </c>
       <c r="W77" t="s">
         <v>82</v>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="AD77">
         <f t="shared" ca="1" si="9"/>
-        <v>488.48</v>
+        <v>94.83</v>
       </c>
       <c r="AE77" t="s">
         <v>82</v>
@@ -10366,11 +10366,11 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>6.43</v>
+        <v>5.28</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>8.65</v>
+        <v>7.17</v>
       </c>
       <c r="H78" s="5">
         <v>45029</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R78" t="s">
         <v>78</v>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="V78">
         <f t="shared" ca="1" si="8"/>
-        <v>704.45</v>
+        <v>367.26</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>105</v>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="AD78">
         <f t="shared" ca="1" si="9"/>
-        <v>436.6</v>
+        <v>343.99</v>
       </c>
       <c r="AE78" t="s">
         <v>82</v>
@@ -10469,11 +10469,11 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>5.92</v>
+        <v>6.23</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9400000000000004</v>
+        <v>5.84</v>
       </c>
       <c r="H79" s="5">
         <v>45029</v>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R79" t="s">
         <v>78</v>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="V79">
         <f t="shared" ca="1" si="8"/>
-        <v>694.65</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="W79" t="s">
         <v>82</v>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="AD79">
         <f t="shared" ca="1" si="9"/>
-        <v>264.66000000000003</v>
+        <v>571.36</v>
       </c>
       <c r="AE79" t="s">
         <v>82</v>
@@ -10572,11 +10572,11 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>5.57</v>
+        <v>4.72</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="H80" s="5">
         <v>45029</v>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R80" t="s">
         <v>78</v>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="V80">
         <f t="shared" ca="1" si="8"/>
-        <v>667.27</v>
+        <v>69.87</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>105</v>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="AD80">
         <f t="shared" ca="1" si="9"/>
-        <v>672.97</v>
+        <v>485.27</v>
       </c>
       <c r="AE80" t="s">
         <v>82</v>
@@ -10675,11 +10675,11 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1500000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>7.48</v>
+        <v>7.71</v>
       </c>
       <c r="H81" s="5">
         <v>45030</v>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="8"/>
-        <v>46.39</v>
+        <v>640.22</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>105</v>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="AD81">
         <f t="shared" ca="1" si="9"/>
-        <v>528.66</v>
+        <v>487.49</v>
       </c>
       <c r="AE81" t="s">
         <v>82</v>
@@ -10778,11 +10778,11 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>6.31</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>6.31</v>
+        <v>4.88</v>
       </c>
       <c r="H82" s="5">
         <v>45030</v>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R82" t="s">
         <v>78</v>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="V82">
         <f t="shared" ca="1" si="8"/>
-        <v>619.59</v>
+        <v>710.52</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>105</v>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="AD82">
         <f t="shared" ca="1" si="9"/>
-        <v>198.27</v>
+        <v>229.96</v>
       </c>
       <c r="AE82" t="s">
         <v>82</v>
@@ -10881,11 +10881,11 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>5.66</v>
+        <v>6.32</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>8.76</v>
+        <v>5.96</v>
       </c>
       <c r="H83" s="5">
         <v>45030</v>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83" t="s">
         <v>78</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="V83">
         <f t="shared" ca="1" si="8"/>
-        <v>216.65</v>
+        <v>224.75</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>105</v>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="AD83">
         <f t="shared" ca="1" si="9"/>
-        <v>115.93</v>
+        <v>660.25</v>
       </c>
       <c r="AE83" t="s">
         <v>82</v>
@@ -10984,11 +10984,11 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4499999999999993</v>
+        <v>6.08</v>
       </c>
       <c r="H84" s="5">
         <v>45030</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R84" t="s">
         <v>78</v>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="V84">
         <f t="shared" ca="1" si="8"/>
-        <v>465</v>
+        <v>58.29</v>
       </c>
       <c r="W84" t="s">
         <v>82</v>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="AD84">
         <f t="shared" ca="1" si="9"/>
-        <v>589.29999999999995</v>
+        <v>658.72</v>
       </c>
       <c r="AE84" t="s">
         <v>82</v>
@@ -11087,11 +11087,11 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8899999999999997</v>
+        <v>6.46</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>6.72</v>
+        <v>5.22</v>
       </c>
       <c r="H85" s="5">
         <v>45030</v>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R85" t="s">
         <v>78</v>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="V85">
         <f t="shared" ca="1" si="8"/>
-        <v>739.27</v>
+        <v>769.25</v>
       </c>
       <c r="W85" t="s">
         <v>82</v>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="AD85">
         <f t="shared" ca="1" si="9"/>
-        <v>521.36</v>
+        <v>633.83000000000004</v>
       </c>
       <c r="AE85" t="s">
         <v>82</v>
@@ -11190,11 +11190,11 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>5.43</v>
+        <v>6.36</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>5.18</v>
+        <v>7.65</v>
       </c>
       <c r="H86" s="4">
         <v>45031</v>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R86" t="s">
         <v>78</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="V86">
         <f t="shared" ca="1" si="8"/>
-        <v>572.78</v>
+        <v>505.67</v>
       </c>
       <c r="W86" t="s">
         <v>82</v>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="AD86">
         <f t="shared" ca="1" si="9"/>
-        <v>202.75</v>
+        <v>257.36</v>
       </c>
       <c r="AE86" s="2" t="s">
         <v>105</v>
@@ -11293,11 +11293,11 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>5.89</v>
+        <v>6.41</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0599999999999996</v>
+        <v>5.65</v>
       </c>
       <c r="H87" s="5">
         <v>45031</v>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R87" t="s">
         <v>78</v>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="V87">
         <f t="shared" ca="1" si="8"/>
-        <v>78.989999999999995</v>
+        <v>760.82</v>
       </c>
       <c r="W87" t="s">
         <v>82</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="AD87">
         <f t="shared" ca="1" si="9"/>
-        <v>100.99</v>
+        <v>750.74</v>
       </c>
       <c r="AE87" t="s">
         <v>82</v>
@@ -11396,11 +11396,11 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>6.36</v>
+        <v>6.09</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>6.29</v>
+        <v>4.99</v>
       </c>
       <c r="H88" s="5">
         <v>45031</v>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R88" t="s">
         <v>78</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="V88">
         <f t="shared" ca="1" si="8"/>
-        <v>148.24</v>
+        <v>563.51</v>
       </c>
       <c r="W88" s="2" t="s">
         <v>105</v>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="AD88">
         <f t="shared" ca="1" si="9"/>
-        <v>113.84</v>
+        <v>17.02</v>
       </c>
       <c r="AE88" t="s">
         <v>82</v>
@@ -11499,11 +11499,11 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>5.69</v>
+        <v>5.43</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>4.51</v>
+        <v>7.48</v>
       </c>
       <c r="H89" s="5">
         <v>45031</v>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R89" t="s">
         <v>78</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="V89">
         <f t="shared" ca="1" si="8"/>
-        <v>592.07000000000005</v>
+        <v>567.34</v>
       </c>
       <c r="W89" t="s">
         <v>82</v>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="AD89">
         <f t="shared" ca="1" si="9"/>
-        <v>404.78</v>
+        <v>146.49</v>
       </c>
       <c r="AE89" s="2" t="s">
         <v>105</v>
@@ -11602,11 +11602,11 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7300000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>4.38</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H90" s="5">
         <v>45031</v>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R90" t="s">
         <v>78</v>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="V90">
         <f t="shared" ca="1" si="8"/>
-        <v>238.13</v>
+        <v>112.85</v>
       </c>
       <c r="W90" t="s">
         <v>82</v>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="AD90">
         <f t="shared" ca="1" si="9"/>
-        <v>731.84</v>
+        <v>645.12</v>
       </c>
       <c r="AE90" t="s">
         <v>82</v>
@@ -11705,11 +11705,11 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="5"/>
-        <v>6.42</v>
+        <v>6.06</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>6.57</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H91" s="5">
         <v>45031</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R91" t="s">
         <v>78</v>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="V91">
         <f t="shared" ca="1" si="8"/>
-        <v>278.33</v>
+        <v>311.10000000000002</v>
       </c>
       <c r="W91" t="s">
         <v>82</v>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="AD91">
         <f t="shared" ca="1" si="9"/>
-        <v>169.58</v>
+        <v>146.15</v>
       </c>
       <c r="AE91" t="s">
         <v>82</v>
@@ -11808,11 +11808,11 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>6.36</v>
+        <v>6.24</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>4.51</v>
+        <v>7.75</v>
       </c>
       <c r="H92" s="5">
         <v>45031</v>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R92" t="s">
         <v>78</v>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="V92">
         <f t="shared" ca="1" si="8"/>
-        <v>61.1</v>
+        <v>540.74</v>
       </c>
       <c r="W92" t="s">
         <v>82</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="AD92">
         <f t="shared" ca="1" si="9"/>
-        <v>216.3</v>
+        <v>448.53</v>
       </c>
       <c r="AE92" t="s">
         <v>82</v>
@@ -11911,11 +11911,11 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>4.57</v>
+        <v>4.3</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>8.35</v>
+        <v>8.74</v>
       </c>
       <c r="H93" s="4">
         <v>45032</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R93" t="s">
         <v>78</v>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="V93">
         <f t="shared" ca="1" si="8"/>
-        <v>627.67999999999995</v>
+        <v>340.86</v>
       </c>
       <c r="W93" t="s">
         <v>82</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="AD93">
         <f t="shared" ca="1" si="9"/>
-        <v>747.88</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="AE93" t="s">
         <v>82</v>
@@ -12014,11 +12014,11 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4000000000000004</v>
+        <v>5.05</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>5.81</v>
+        <v>8.83</v>
       </c>
       <c r="H94" s="5">
         <v>45032</v>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R94" t="s">
         <v>78</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="V94">
         <f t="shared" ca="1" si="8"/>
-        <v>671.62</v>
+        <v>391.65</v>
       </c>
       <c r="W94" s="2" t="s">
         <v>105</v>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="AD94">
         <f t="shared" ca="1" si="9"/>
-        <v>519.73</v>
+        <v>784.99</v>
       </c>
       <c r="AE94" t="s">
         <v>82</v>
@@ -12117,11 +12117,11 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>6.44</v>
+        <v>6.83</v>
       </c>
       <c r="H95" s="5">
         <v>45032</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R95" t="s">
         <v>78</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="V95">
         <f t="shared" ca="1" si="8"/>
-        <v>355.51</v>
+        <v>717.82</v>
       </c>
       <c r="W95" t="s">
         <v>82</v>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="AD95">
         <f t="shared" ca="1" si="9"/>
-        <v>616.75</v>
+        <v>559.09</v>
       </c>
       <c r="AE95" t="s">
         <v>82</v>
@@ -12220,11 +12220,11 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>5.95</v>
+        <v>6.32</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>6.99</v>
       </c>
       <c r="H96" s="5">
         <v>45032</v>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R96" t="s">
         <v>78</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="V96">
         <f t="shared" ca="1" si="8"/>
-        <v>448.41</v>
+        <v>416.64</v>
       </c>
       <c r="W96" t="s">
         <v>82</v>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="AD96">
         <f t="shared" ca="1" si="9"/>
-        <v>614.83000000000004</v>
+        <v>171.07</v>
       </c>
       <c r="AE96" t="s">
         <v>82</v>
@@ -12323,11 +12323,11 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7699999999999996</v>
+        <v>6.03</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="6"/>
-        <v>7.98</v>
+        <v>6.9</v>
       </c>
       <c r="H97" s="5">
         <v>45033</v>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="V97">
         <f t="shared" ca="1" si="8"/>
-        <v>23.99</v>
+        <v>83.31</v>
       </c>
       <c r="W97" t="s">
         <v>82</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="AD97">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>460.1</v>
       </c>
       <c r="AE97" t="s">
         <v>82</v>
@@ -12426,11 +12426,11 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>4.54</v>
+        <v>4.13</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="6"/>
-        <v>7.85</v>
+        <v>5.75</v>
       </c>
       <c r="H98" s="5">
         <v>45033</v>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R98" t="s">
         <v>78</v>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="V98">
         <f t="shared" ca="1" si="8"/>
-        <v>292.54000000000002</v>
+        <v>201.85</v>
       </c>
       <c r="W98" t="s">
         <v>82</v>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="AD98">
         <f t="shared" ca="1" si="9"/>
-        <v>610.39</v>
+        <v>731.16</v>
       </c>
       <c r="AE98" t="s">
         <v>82</v>
@@ -12529,11 +12529,11 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>6.32</v>
+        <v>4.29</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9400000000000004</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H99" s="5">
         <v>45033</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R99" t="s">
         <v>78</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="V99">
         <f t="shared" ca="1" si="8"/>
-        <v>109.17</v>
+        <v>457.65</v>
       </c>
       <c r="W99" t="s">
         <v>82</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="AD99">
         <f t="shared" ca="1" si="9"/>
-        <v>280.37</v>
+        <v>347.22</v>
       </c>
       <c r="AE99" s="2" t="s">
         <v>105</v>
@@ -12632,11 +12632,11 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>5.31</v>
+        <v>4.59</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="6"/>
-        <v>5.45</v>
+        <v>6.62</v>
       </c>
       <c r="H100" s="5">
         <v>45033</v>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R100" t="s">
         <v>78</v>
@@ -12662,7 +12662,7 @@
       </c>
       <c r="V100">
         <f t="shared" ca="1" si="8"/>
-        <v>251.12</v>
+        <v>615.42999999999995</v>
       </c>
       <c r="W100" t="s">
         <v>82</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="AD100">
         <f t="shared" ca="1" si="9"/>
-        <v>132.57</v>
+        <v>763.21</v>
       </c>
       <c r="AE100" t="s">
         <v>82</v>
@@ -12723,26 +12723,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B29F6E6FF83FA94983268F03B4663D92" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e0af9fe4c955a87c166569201c542f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9d5e65-900d-4136-a2d9-b84c230c9751" xmlns:ns3="067b8a2d-5c94-4f95-8131-a66158bbd083" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f90cd65e8696f87a03877262d170d8" ns2:_="" ns3:_="">
     <xsd:import namespace="db9d5e65-900d-4136-a2d9-b84c230c9751"/>
@@ -12971,8 +12951,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5507F9A-CEAC-4B9A-8BD1-38606553C552}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EA9BBE-2B46-44F2-A95C-FAA747FD2518}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12980,5 +12980,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EA9BBE-2B46-44F2-A95C-FAA747FD2518}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5507F9A-CEAC-4B9A-8BD1-38606553C552}"/>
 </file>